--- a/Assets/Data/Alcana.xlsx
+++ b/Assets/Data/Alcana.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>Id</t>
   </si>
@@ -95,139 +95,166 @@
     <t>21_world</t>
   </si>
   <si>
+    <t>base</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
-    <t>愚者</t>
-  </si>
-  <si>
-    <t>鈍足付与</t>
-  </si>
-  <si>
-    <t>魔術師</t>
-  </si>
-  <si>
-    <t>炎アップ</t>
+    <t>【愚者】</t>
+  </si>
+  <si>
+    <t>救済執行の敵に鈍足付与</t>
+  </si>
+  <si>
+    <t>【魔術師】</t>
+  </si>
+  <si>
+    <t>ユニット全員のSPを20入手する</t>
   </si>
   <si>
     <t>【女教皇】</t>
   </si>
   <si>
-    <t>HP回復</t>
-  </si>
-  <si>
-    <t>女帝</t>
-  </si>
-  <si>
-    <t>最大MPアップ</t>
-  </si>
-  <si>
-    <t>皇帝</t>
-  </si>
-  <si>
-    <t>最大HPアップ</t>
-  </si>
-  <si>
-    <t>法王</t>
-  </si>
-  <si>
-    <t>MP回復</t>
-  </si>
-  <si>
-    <t>恋愛</t>
-  </si>
-  <si>
-    <t>ユニットを蘇生する</t>
-  </si>
-  <si>
-    <t>戦車</t>
-  </si>
-  <si>
-    <t>火傷付与</t>
-  </si>
-  <si>
-    <t>正義</t>
-  </si>
-  <si>
-    <t>氷アップ</t>
-  </si>
-  <si>
-    <t>隠者</t>
-  </si>
-  <si>
-    <t>雷アップ</t>
-  </si>
-  <si>
-    <t>運命</t>
-  </si>
-  <si>
-    <t>2回行動付与</t>
-  </si>
-  <si>
-    <t>剛毅</t>
-  </si>
-  <si>
-    <t>ATKアップ</t>
-  </si>
-  <si>
-    <t>刑死者</t>
-  </si>
-  <si>
-    <t>命中率ダウン</t>
-  </si>
-  <si>
-    <t>死神</t>
-  </si>
-  <si>
-    <t>ユニットを死滅させる</t>
-  </si>
-  <si>
-    <t>節制</t>
-  </si>
-  <si>
-    <t>状態異常耐性</t>
-  </si>
-  <si>
-    <t>悪魔</t>
-  </si>
-  <si>
-    <t>闇アップ</t>
-  </si>
-  <si>
-    <t>塔</t>
-  </si>
-  <si>
-    <t>DEFアップ</t>
-  </si>
-  <si>
-    <t>星</t>
-  </si>
-  <si>
-    <t>SPDアップ</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>敵の前後を入れ替える</t>
-  </si>
-  <si>
-    <t>太陽</t>
-  </si>
-  <si>
-    <t>敵のLvを下げる</t>
-  </si>
-  <si>
-    <t>審判</t>
-  </si>
-  <si>
-    <t>光アップ</t>
-  </si>
-  <si>
-    <t>世界</t>
+    <t>HPとMPを30回復する</t>
+  </si>
+  <si>
+    <t>【女帝】</t>
+  </si>
+  <si>
+    <t>HPを全回復する</t>
+  </si>
+  <si>
+    <t>【皇帝】</t>
+  </si>
+  <si>
+    <t>Numinousの消費コストを半分にする</t>
+  </si>
+  <si>
+    <t>【法王】</t>
+  </si>
+  <si>
+    <t>MPを全回復する</t>
+  </si>
+  <si>
+    <t>【恋愛】</t>
+  </si>
+  <si>
+    <t>ロストしたユニットを蘇生する</t>
+  </si>
+  <si>
+    <t>【戦車】</t>
+  </si>
+  <si>
+    <t>救済執行時ユニット全員の最大HPとHPを20アップ</t>
+  </si>
+  <si>
+    <t>【正義】</t>
+  </si>
+  <si>
+    <t>隷従属度を30アップする</t>
+  </si>
+  <si>
+    <t>【隠者】</t>
+  </si>
+  <si>
+    <t>救済執行時ユニット全員の回避率を50アップ</t>
+  </si>
+  <si>
+    <t>【運命】</t>
+  </si>
+  <si>
+    <t>次に開示するアルカナが大アルカナになる</t>
+  </si>
+  <si>
+    <t>【剛毅】</t>
+  </si>
+  <si>
+    <t>救済執行時ユニット全員のATKを8アップ</t>
+  </si>
+  <si>
+    <t>【刑死者】</t>
+  </si>
+  <si>
+    <t>救済執行の敵に10ダメージの火傷付与</t>
+  </si>
+  <si>
+    <t>【死神】</t>
+  </si>
+  <si>
+    <t>救済執行の前衛の敵を消滅させる</t>
+  </si>
+  <si>
+    <t>【節制】</t>
+  </si>
+  <si>
+    <t>救済執行時ユニット全員に状態異常耐性を付与</t>
+  </si>
+  <si>
+    <t>【悪魔】</t>
+  </si>
+  <si>
+    <t>救済執行の敵のHPを半減する</t>
+  </si>
+  <si>
+    <t>【塔】</t>
+  </si>
+  <si>
+    <t>救済執行時ユニット全員のDEFを8アップ</t>
+  </si>
+  <si>
+    <t>【星】</t>
+  </si>
+  <si>
+    <t>Numinousを20入手する</t>
+  </si>
+  <si>
+    <t>【月】</t>
+  </si>
+  <si>
+    <t>救済執行の敵の前後を入れ替える</t>
+  </si>
+  <si>
+    <t>【太陽】</t>
+  </si>
+  <si>
+    <t>救済執行の敵Lvを下げる</t>
+  </si>
+  <si>
+    <t>【審判】</t>
+  </si>
+  <si>
+    <t>救済執行時ユニット全員の最大MPとMpを20アップ</t>
+  </si>
+  <si>
+    <t>【世界】</t>
   </si>
   <si>
     <t>シナリオ限定</t>
+  </si>
+  <si>
+    <t>【杖】</t>
+  </si>
+  <si>
+    <t>ユニット全員のSPを2入手する</t>
+  </si>
+  <si>
+    <t>【器】</t>
+  </si>
+  <si>
+    <t>HPとMPを10回復する</t>
+  </si>
+  <si>
+    <t>【剣】</t>
+  </si>
+  <si>
+    <t>救済執行時ユニット全員のATKを2アップ</t>
+  </si>
+  <si>
+    <t>【貨幣】</t>
+  </si>
+  <si>
+    <t>Numinousを4入手する</t>
   </si>
 </sst>
 </file>
@@ -235,8 +262,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -249,44 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,7 +292,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -308,8 +306,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,25 +336,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,11 +358,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,13 +382,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -402,25 +429,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,109 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,43 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,6 +620,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -611,13 +653,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,41 +683,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,6 +709,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -701,145 +728,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,10 +1196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1504,6 +1531,62 @@
         <v>1022</v>
       </c>
     </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>1026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1513,10 +1596,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1526,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1534,10 +1617,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1545,10 +1628,10 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1556,10 +1639,10 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1567,10 +1650,10 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1578,10 +1661,10 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1589,10 +1672,10 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1600,10 +1683,10 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1611,10 +1694,10 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1622,10 +1705,10 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1633,10 +1716,10 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1644,10 +1727,10 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1655,10 +1738,10 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1666,10 +1749,10 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1677,10 +1760,10 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1688,10 +1771,10 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1699,10 +1782,10 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1710,10 +1793,10 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1721,10 +1804,10 @@
         <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1732,10 +1815,10 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1743,10 +1826,10 @@
         <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1754,10 +1837,10 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1765,10 +1848,54 @@
         <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Alcana.xlsx
+++ b/Assets/Data/Alcana.xlsx
@@ -104,13 +104,13 @@
     <t>【愚者】</t>
   </si>
   <si>
-    <t>救済執行の敵に鈍足付与</t>
+    <t>Numinosを10入手する</t>
   </si>
   <si>
     <t>【魔術師】</t>
   </si>
   <si>
-    <t>ユニット全員のSPを20入手する</t>
+    <t>術者全員のSPを10入手する</t>
   </si>
   <si>
     <t>【女教皇】</t>
@@ -128,7 +128,7 @@
     <t>【皇帝】</t>
   </si>
   <si>
-    <t>Numinousの消費コストを半分にする</t>
+    <t>命令実行に必要なNuminosの消費を半分にする</t>
   </si>
   <si>
     <t>【法王】</t>
@@ -176,7 +176,7 @@
     <t>【刑死者】</t>
   </si>
   <si>
-    <t>救済執行の敵に10ダメージの火傷付与</t>
+    <t>救済執行の敵のHPを1になるが、隷従属度が0になる</t>
   </si>
   <si>
     <t>【死神】</t>
@@ -206,13 +206,13 @@
     <t>【星】</t>
   </si>
   <si>
-    <t>Numinousを20入手する</t>
+    <t>Numinosを20入手するが、命令できなくなる</t>
   </si>
   <si>
     <t>【月】</t>
   </si>
   <si>
-    <t>救済執行の敵の前後を入れ替える</t>
+    <t>術者全員のSPを20入手するが、命令できなくなる</t>
   </si>
   <si>
     <t>【太陽】</t>
@@ -236,25 +236,25 @@
     <t>【杖】</t>
   </si>
   <si>
-    <t>ユニット全員のSPを2入手する</t>
+    <t>術者全員のSPを1入手する</t>
   </si>
   <si>
     <t>【器】</t>
   </si>
   <si>
-    <t>HPとMPを10回復する</t>
+    <t>MPを10回復する</t>
   </si>
   <si>
     <t>【剣】</t>
   </si>
   <si>
-    <t>救済執行時ユニット全員のATKを2アップ</t>
+    <t>HPを10回復する</t>
   </si>
   <si>
     <t>【貨幣】</t>
   </si>
   <si>
-    <t>Numinousを4入手する</t>
+    <t>Numinosを2入手する</t>
   </si>
 </sst>
 </file>
@@ -262,9 +262,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -278,7 +278,66 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,30 +351,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,22 +374,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,32 +397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,22 +414,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,43 +429,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,139 +597,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,17 +623,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +664,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -664,30 +684,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,19 +700,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,145 +728,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1598,8 +1598,8 @@
   <sheetPr/>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Data/Alcana.xlsx
+++ b/Assets/Data/Alcana.xlsx
@@ -110,121 +110,121 @@
     <t>【魔術師】</t>
   </si>
   <si>
+    <t>術者全員のSPを5入手する</t>
+  </si>
+  <si>
+    <t>【女教皇】</t>
+  </si>
+  <si>
+    <t>HPとMPを30回復する</t>
+  </si>
+  <si>
+    <t>【女帝】</t>
+  </si>
+  <si>
+    <t>HPを全回復する</t>
+  </si>
+  <si>
+    <t>【皇帝】</t>
+  </si>
+  <si>
+    <t>命令実行に必要な消費Numinosを半分にする</t>
+  </si>
+  <si>
+    <t>【法王】</t>
+  </si>
+  <si>
+    <t>救済執行成功時に(Nu)を5入手する</t>
+  </si>
+  <si>
+    <t>【恋愛】</t>
+  </si>
+  <si>
+    <t>ロストしたユニットを蘇生する</t>
+  </si>
+  <si>
+    <t>【戦車】</t>
+  </si>
+  <si>
+    <t>ターン中最大HPアップの消費を1ダウン</t>
+  </si>
+  <si>
+    <t>【正義】</t>
+  </si>
+  <si>
+    <t>隷従属度を30アップする</t>
+  </si>
+  <si>
+    <t>【隠者】</t>
+  </si>
+  <si>
+    <t>ターン中SPDアップの消費を1ダウン</t>
+  </si>
+  <si>
+    <t>【運命】</t>
+  </si>
+  <si>
+    <t>次に開示するアルカナが大アルカナになる</t>
+  </si>
+  <si>
+    <t>【剛毅】</t>
+  </si>
+  <si>
+    <t>ターン中ATKアップの消費を1ダウン</t>
+  </si>
+  <si>
+    <t>【刑死者】</t>
+  </si>
+  <si>
+    <t>救済執行の敵のHPを1になるが、隷従属度が0になる</t>
+  </si>
+  <si>
+    <t>【死神】</t>
+  </si>
+  <si>
+    <t>救済執行の前衛の敵を消滅させる</t>
+  </si>
+  <si>
+    <t>【節制】</t>
+  </si>
+  <si>
+    <t>救済執行時ユニット全員に状態異常耐性を付与</t>
+  </si>
+  <si>
+    <t>【悪魔】</t>
+  </si>
+  <si>
+    <t>ターン中最大MPアップの消費を1ダウン</t>
+  </si>
+  <si>
+    <t>【塔】</t>
+  </si>
+  <si>
+    <t>ターン中DEFアップの消費を1ダウン</t>
+  </si>
+  <si>
+    <t>【星】</t>
+  </si>
+  <si>
+    <t>Numinosを20入手するが、命令できなくなる</t>
+  </si>
+  <si>
+    <t>【月】</t>
+  </si>
+  <si>
+    <t>術者全員のSPを20入手するが、命令できなくなる</t>
+  </si>
+  <si>
+    <t>【太陽】</t>
+  </si>
+  <si>
     <t>術者全員のSPを10入手する</t>
   </si>
   <si>
-    <t>【女教皇】</t>
-  </si>
-  <si>
-    <t>HPとMPを30回復する</t>
-  </si>
-  <si>
-    <t>【女帝】</t>
-  </si>
-  <si>
-    <t>HPを全回復する</t>
-  </si>
-  <si>
-    <t>【皇帝】</t>
-  </si>
-  <si>
-    <t>命令実行に必要なNuminosの消費を半分にする</t>
-  </si>
-  <si>
-    <t>【法王】</t>
-  </si>
-  <si>
-    <t>MPを全回復する</t>
-  </si>
-  <si>
-    <t>【恋愛】</t>
-  </si>
-  <si>
-    <t>ロストしたユニットを蘇生する</t>
-  </si>
-  <si>
-    <t>【戦車】</t>
-  </si>
-  <si>
-    <t>救済執行時ユニット全員の最大HPとHPを20アップ</t>
-  </si>
-  <si>
-    <t>【正義】</t>
-  </si>
-  <si>
-    <t>隷従属度を30アップする</t>
-  </si>
-  <si>
-    <t>【隠者】</t>
-  </si>
-  <si>
-    <t>救済執行時ユニット全員の回避率を50アップ</t>
-  </si>
-  <si>
-    <t>【運命】</t>
-  </si>
-  <si>
-    <t>次に開示するアルカナが大アルカナになる</t>
-  </si>
-  <si>
-    <t>【剛毅】</t>
-  </si>
-  <si>
-    <t>救済執行時ユニット全員のATKを8アップ</t>
-  </si>
-  <si>
-    <t>【刑死者】</t>
-  </si>
-  <si>
-    <t>救済執行の敵のHPを1になるが、隷従属度が0になる</t>
-  </si>
-  <si>
-    <t>【死神】</t>
-  </si>
-  <si>
-    <t>救済執行の前衛の敵を消滅させる</t>
-  </si>
-  <si>
-    <t>【節制】</t>
-  </si>
-  <si>
-    <t>救済執行時ユニット全員に状態異常耐性を付与</t>
-  </si>
-  <si>
-    <t>【悪魔】</t>
-  </si>
-  <si>
-    <t>救済執行の敵のHPを半減する</t>
-  </si>
-  <si>
-    <t>【塔】</t>
-  </si>
-  <si>
-    <t>救済執行時ユニット全員のDEFを8アップ</t>
-  </si>
-  <si>
-    <t>【星】</t>
-  </si>
-  <si>
-    <t>Numinosを20入手するが、命令できなくなる</t>
-  </si>
-  <si>
-    <t>【月】</t>
-  </si>
-  <si>
-    <t>術者全員のSPを20入手するが、命令できなくなる</t>
-  </si>
-  <si>
-    <t>【太陽】</t>
-  </si>
-  <si>
-    <t>救済執行の敵Lvを下げる</t>
-  </si>
-  <si>
     <t>【審判】</t>
   </si>
   <si>
-    <t>救済執行時ユニット全員の最大MPとMpを20アップ</t>
+    <t>救済執行成功時に(Nu)を10入手する</t>
   </si>
   <si>
     <t>【世界】</t>
@@ -262,10 +262,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -276,52 +276,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,9 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,15 +308,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,11 +323,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,7 +374,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,14 +419,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -429,25 +429,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +573,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,145 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,47 +620,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -688,11 +647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,6 +667,41 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,145 +728,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,7 +1198,7 @@
   <sheetPr/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1598,8 +1598,8 @@
   <sheetPr/>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Data/Alcana.xlsx
+++ b/Assets/Data/Alcana.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Alcana" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Id</t>
   </si>
@@ -95,166 +95,139 @@
     <t>21_world</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
     <t>【愚者】</t>
   </si>
   <si>
-    <t>Numinosを10入手する</t>
+    <t>(条件)終焉まで0ターンになる前</t>
   </si>
   <si>
     <t>【魔術師】</t>
   </si>
   <si>
-    <t>術者全員のSPを5入手する</t>
+    <t>(条件)終焉まで1ターンの時</t>
   </si>
   <si>
     <t>【女教皇】</t>
   </si>
   <si>
-    <t>HPとMPを30回復する</t>
+    <t>(条件)終焉まで2ターンの時</t>
   </si>
   <si>
     <t>【女帝】</t>
   </si>
   <si>
-    <t>HPを全回復する</t>
+    <t>(条件)終焉まで3ターンの時</t>
   </si>
   <si>
     <t>【皇帝】</t>
   </si>
   <si>
-    <t>命令実行に必要な消費Numinosを半分にする</t>
+    <t>(条件)終焉まで4ターンの時</t>
   </si>
   <si>
     <t>【法王】</t>
   </si>
   <si>
-    <t>救済執行成功時に(Nu)を5入手する</t>
+    <t>(条件)終焉まで5ターンの時</t>
   </si>
   <si>
     <t>【恋愛】</t>
   </si>
   <si>
-    <t>ロストしたユニットを蘇生する</t>
+    <t>(条件)終焉まで6ターンの時</t>
   </si>
   <si>
     <t>【戦車】</t>
   </si>
   <si>
-    <t>ターン中最大HPアップの消費を1ダウン</t>
+    <t>(条件)終焉まで7ターンの時</t>
   </si>
   <si>
     <t>【正義】</t>
   </si>
   <si>
-    <t>隷従属度を30アップする</t>
+    <t>(条件)終焉まで8ターンの時</t>
   </si>
   <si>
     <t>【隠者】</t>
   </si>
   <si>
-    <t>ターン中SPDアップの消費を1ダウン</t>
+    <t>(条件)終焉まで9ターンの時</t>
   </si>
   <si>
     <t>【運命】</t>
   </si>
   <si>
-    <t>次に開示するアルカナが大アルカナになる</t>
+    <t>(条件)終焉まで10ターンの時</t>
   </si>
   <si>
     <t>【剛毅】</t>
   </si>
   <si>
-    <t>ターン中ATKアップの消費を1ダウン</t>
+    <t>(条件)終焉まで11ターンの時</t>
   </si>
   <si>
     <t>【刑死者】</t>
   </si>
   <si>
-    <t>救済執行の敵のHPを1になるが、隷従属度が0になる</t>
+    <t>(条件)終焉まで12ターンの時</t>
   </si>
   <si>
     <t>【死神】</t>
   </si>
   <si>
-    <t>救済執行の前衛の敵を消滅させる</t>
+    <t>(条件)終焉まで13ターンの時</t>
   </si>
   <si>
     <t>【節制】</t>
   </si>
   <si>
-    <t>救済執行時ユニット全員に状態異常耐性を付与</t>
+    <t>(条件)終焉まで14ターンの時</t>
   </si>
   <si>
     <t>【悪魔】</t>
   </si>
   <si>
-    <t>ターン中最大MPアップの消費を1ダウン</t>
+    <t>(条件)終焉まで15ターンの時</t>
   </si>
   <si>
     <t>【塔】</t>
   </si>
   <si>
-    <t>ターン中DEFアップの消費を1ダウン</t>
+    <t>(条件)終焉まで16ターンの時</t>
   </si>
   <si>
     <t>【星】</t>
   </si>
   <si>
-    <t>Numinosを20入手するが、命令できなくなる</t>
+    <t>(条件)終焉まで17ターンの時</t>
   </si>
   <si>
     <t>【月】</t>
   </si>
   <si>
-    <t>術者全員のSPを20入手するが、命令できなくなる</t>
+    <t>(条件)終焉まで18ターンの時</t>
   </si>
   <si>
     <t>【太陽】</t>
   </si>
   <si>
-    <t>術者全員のSPを10入手する</t>
+    <t>(条件)終焉まで19ターンの時</t>
   </si>
   <si>
     <t>【審判】</t>
   </si>
   <si>
-    <t>救済執行成功時に(Nu)を10入手する</t>
+    <t>(条件)終焉まで20ターンの時</t>
   </si>
   <si>
     <t>【世界】</t>
   </si>
   <si>
-    <t>シナリオ限定</t>
-  </si>
-  <si>
-    <t>【杖】</t>
-  </si>
-  <si>
-    <t>術者全員のSPを1入手する</t>
-  </si>
-  <si>
-    <t>【器】</t>
-  </si>
-  <si>
-    <t>MPを10回復する</t>
-  </si>
-  <si>
-    <t>【剣】</t>
-  </si>
-  <si>
-    <t>HPを10回復する</t>
-  </si>
-  <si>
-    <t>【貨幣】</t>
-  </si>
-  <si>
-    <t>Numinosを2入手する</t>
+    <t>(条件)終焉まで21ターンの時</t>
   </si>
 </sst>
 </file>
@@ -262,9 +235,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -277,7 +250,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +274,82 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,74 +361,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -379,46 +392,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -429,13 +402,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,13 +474,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,151 +516,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,21 +593,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -649,6 +607,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,22 +635,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,16 +678,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,7 +701,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,136 +710,136 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1196,10 +1169,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A24" sqref="$A24:$XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1531,62 +1504,6 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>122</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>123</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>124</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>125</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <v>1026</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1596,10 +1513,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1609,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1617,10 +1534,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1628,10 +1545,10 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1639,10 +1556,10 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1650,10 +1567,10 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1661,10 +1578,10 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1672,10 +1589,10 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1683,10 +1600,10 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1694,10 +1611,10 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1705,10 +1622,10 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1716,10 +1633,10 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1727,10 +1644,10 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1738,10 +1655,10 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1749,10 +1666,10 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1760,10 +1677,10 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1771,10 +1688,10 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1782,10 +1699,10 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
         <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1793,10 +1710,10 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1804,10 +1721,10 @@
         <v>117</v>
       </c>
       <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1815,10 +1732,10 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1826,10 +1743,10 @@
         <v>119</v>
       </c>
       <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1837,10 +1754,10 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1848,54 +1765,10 @@
         <v>121</v>
       </c>
       <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>122</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>123</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>124</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
